--- a/biology/Botanique/Pithophoraceae/Pithophoraceae.xlsx
+++ b/biology/Botanique/Pithophoraceae/Pithophoraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pithophoraceae, ou Pithophoracées, sont une famille d’algues vertes de l’ordre des Cladophorales. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Pithophora, du grec πιθοσ / pithos, «  tonneau ; jarre », et du suffixe grec -φορα / -phora, porter, en référence aux cellules akinètes de forme cylindrique ou doliformes (en forme de baril) que portent les frondes de cette algue[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Pithophora, du grec πιθοσ / pithos, «  tonneau ; jarre », et du suffixe grec -φορα / -phora, porter, en référence aux cellules akinètes de forme cylindrique ou doliformes (en forme de baril) que portent les frondes de cette algue.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (3 août 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (3 août 2017) :
 AegagropilaAegagropila Kützing
 Aegagropilopsis (hr) Boedeker
 Arnoldiella (en) V.V.Miller
@@ -557,11 +573,11 @@
 Gemmiphora Skabichevskii
 Pithophora (en) Wittrock
 Wittrockiella (en) Wille
-Selon ITIS      (3 août 2017)[3] :
+Selon ITIS      (3 août 2017) :
 Basicladia W.E. Hoffmann &amp; Tilden
 Dictyosphaeria (en) Decaisne
 Pithophora Wittrock
-Selon World Register of Marine Species                               (3 août 2017)[4] :
+Selon World Register of Marine Species                               (3 août 2017) :
 Aegagropilopsis Boedeker, 2012</t>
         </is>
       </c>
